--- a/source_analyses/dk/2015/8_transport/8_transport_source_analysis.xlsx
+++ b/source_analyses/dk/2015/8_transport/8_transport_source_analysis.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/source_analyses/dk/2015/8_transport/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martlubben/Projects/etdataset/source_analyses/dk/2015/8_transport/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DFABEE-97CB-174B-A1CA-F174F1ECB8B5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA84D0E3-E7FF-4C43-9704-79C2FEC8286A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26820" tabRatio="702" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48000" yWindow="-3160" windowWidth="19200" windowHeight="21160" tabRatio="702" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="22" r:id="rId1"/>
+    <sheet name="Dashboard" sheetId="23" r:id="rId1"/>
+    <sheet name="Calculations and sources" sheetId="22" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,28 +34,350 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Denmark Statistics</t>
-  </si>
-  <si>
-    <t>http://ec.europa.eu/eurostat/statistics-explained/index.php/Passenger_cars_in_the_EU#Highest_share_of_passenger_cars_over_20_years_old_in_Poland</t>
-  </si>
-  <si>
-    <t>Mogelijk interessante bron</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="111">
   <si>
     <t>AARHUS UNIVERSITY - DANISH EMISSION INVENTORIES FOR ROAD TRANSPORT AND OTHER MOBILE SOURCESM 2016</t>
+  </si>
+  <si>
+    <t>Gross energy consumption in common units by type of energy, time and industry</t>
+  </si>
+  <si>
+    <t>Units: GJ (gigajoule)</t>
+  </si>
+  <si>
+    <t>490010 Passenger rail transport, interurban</t>
+  </si>
+  <si>
+    <t>490030 Freight transport by road and via pipeline</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>Split electricty passenger and goods railway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From: https://www.statbank.dk/ENE3H </t>
+  </si>
+  <si>
+    <t>Road Transport</t>
+  </si>
+  <si>
+    <t>Percentage of gasoline mix delivered to cars</t>
+  </si>
+  <si>
+    <t>Share</t>
+  </si>
+  <si>
+    <t>Percentage of gasoline mix delivered to trucks</t>
+  </si>
+  <si>
+    <t>Percentage of gasoline mix delivered to busses</t>
+  </si>
+  <si>
+    <t>Percentage of gasoline mix delivered to motorcycles</t>
+  </si>
+  <si>
+    <t>Percentage of diesel mix delivered to cars</t>
+  </si>
+  <si>
+    <t>Percentage of diesel mix delivered to trucks</t>
+  </si>
+  <si>
+    <t>Percentage of diesel mix delivered to busses</t>
+  </si>
+  <si>
+    <t>Percentage of electricity delivered to cars</t>
+  </si>
+  <si>
+    <t>Percentage of electricity delivered to trucks</t>
+  </si>
+  <si>
+    <t>Percentage of electricity delivered to busses</t>
+  </si>
+  <si>
+    <t>Percentage of electricity delivered to motorcycles</t>
+  </si>
+  <si>
+    <t>Percentage of electricity delivered to bicycles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of natural gas that is liquefied natural gas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of natural gas that is compressed natural gas </t>
+  </si>
+  <si>
+    <t>Percentage of lng that is delivered to trucks</t>
+  </si>
+  <si>
+    <t>Percentage of lng that is delivered to busses</t>
+  </si>
+  <si>
+    <t>Percentage of compressed network gas delivered to cars</t>
+  </si>
+  <si>
+    <t>Percentage of compressed network gas delivered to trucks</t>
+  </si>
+  <si>
+    <t>Percentage of compressed network gas delivered to busses</t>
+  </si>
+  <si>
+    <t>Biogases in road transport</t>
+  </si>
+  <si>
+    <t>TJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of bio lng </t>
+  </si>
+  <si>
+    <t>Percentage of bio cng</t>
+  </si>
+  <si>
+    <t>Passenger kilometers bicycles</t>
+  </si>
+  <si>
+    <t>million pkm</t>
+  </si>
+  <si>
+    <t>Domestic navigation transport</t>
+  </si>
+  <si>
+    <t>LNG shipping</t>
+  </si>
+  <si>
+    <t>Percentage of lng for shipping to (pure) lng ship</t>
+  </si>
+  <si>
+    <t>Percentage of lng for shipping to hybrid diesel ship</t>
+  </si>
+  <si>
+    <t>Bio LNG shipping</t>
+  </si>
+  <si>
+    <t>Percentage of bio lng for shipping to (pure) lng ship</t>
+  </si>
+  <si>
+    <t>Percentage of bio lng for shipping to hybrid diesel ship</t>
+  </si>
+  <si>
+    <t>Rail transport</t>
+  </si>
+  <si>
+    <t>Electricity rail</t>
+  </si>
+  <si>
+    <t>Percentage of electricity delivered to trams/metro</t>
+  </si>
+  <si>
+    <t>Percentage of electricity delivered to passenger trains</t>
+  </si>
+  <si>
+    <t>Percentage of electricity delivered to freight trains</t>
+  </si>
+  <si>
+    <t>Diesel rail</t>
+  </si>
+  <si>
+    <t>Percentage of diesel delivered to passenger trains</t>
+  </si>
+  <si>
+    <t>Percentage of diesel delivered to freight trains</t>
+  </si>
+  <si>
+    <t>Gasoline LDV + HDV (trucks + busses)</t>
+  </si>
+  <si>
+    <t>2-wheelers (Motorcycles)</t>
+  </si>
+  <si>
+    <t>Gasonline split</t>
+  </si>
+  <si>
+    <t>Private cars</t>
+  </si>
+  <si>
+    <t>LDV, HDV + 2-wheelers</t>
+  </si>
+  <si>
+    <t>LDV+HDV</t>
+  </si>
+  <si>
+    <t>2-wheelers</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>blue line</t>
+  </si>
+  <si>
+    <t>Final split</t>
+  </si>
+  <si>
+    <t>Subsplit between busses+trucks and motorcycles</t>
+  </si>
+  <si>
+    <t>split between trucks and busses</t>
+  </si>
+  <si>
+    <t>Busses</t>
+  </si>
+  <si>
+    <t>Trucks</t>
+  </si>
+  <si>
+    <t>Gasoline busses</t>
+  </si>
+  <si>
+    <t>Gasoline trucks (include light duty vehicles)</t>
+  </si>
+  <si>
+    <t>Diesel split</t>
+  </si>
+  <si>
+    <t>HDV + LDV</t>
+  </si>
+  <si>
+    <t>Diesel trucks</t>
+  </si>
+  <si>
+    <t>Diesel Busses</t>
+  </si>
+  <si>
+    <t>Electricity split</t>
+  </si>
+  <si>
+    <t>No electricity use in transports.</t>
+  </si>
+  <si>
+    <t>subsplit busses en trucks based on M vehicle kilometers</t>
+  </si>
+  <si>
+    <t>Rail transport of passengers by unit, type of transport and time</t>
+  </si>
+  <si>
+    <t>Units: -</t>
+  </si>
+  <si>
+    <t>2015Q1</t>
+  </si>
+  <si>
+    <t>2015Q2</t>
+  </si>
+  <si>
+    <t>2015Q3</t>
+  </si>
+  <si>
+    <t>2015Q4</t>
+  </si>
+  <si>
+    <t>Million passenger kilometres</t>
+  </si>
+  <si>
+    <t>RAILWAY NETWORK, TOTAL</t>
+  </si>
+  <si>
+    <t>NETWORK MANAGED BY BANESTYRELSEN</t>
+  </si>
+  <si>
+    <t>S-trains</t>
+  </si>
+  <si>
+    <t>National network, total</t>
+  </si>
+  <si>
+    <t>East of Great Belt</t>
+  </si>
+  <si>
+    <t>West of Great Belt</t>
+  </si>
+  <si>
+    <t>Across Great Belt</t>
+  </si>
+  <si>
+    <t>International traffic, total</t>
+  </si>
+  <si>
+    <t>Øresund trains</t>
+  </si>
+  <si>
+    <t>Other international trains</t>
+  </si>
+  <si>
+    <t>COPENHAGEN METRO</t>
+  </si>
+  <si>
+    <t>OTHER RAILWAY NETWORKS</t>
+  </si>
+  <si>
+    <t>LIGHT RAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Metro opened 19 October 2002. The Light rail opened 21 December 2017. Transit passengers through Denmark are included under international traffic. Because of roundings the presented totals may deviate from the sum of corresponding data. </t>
+  </si>
+  <si>
+    <t>From: https://www.statbank.dk/BANE25</t>
+  </si>
+  <si>
+    <t>subsplit passenger transport</t>
+  </si>
+  <si>
+    <t>lightrail + metro + tram</t>
+  </si>
+  <si>
+    <t>M passenger kilometers</t>
+  </si>
+  <si>
+    <t>total railway</t>
+  </si>
+  <si>
+    <t>Final shares</t>
+  </si>
+  <si>
+    <t>Split diesel passengers and goods rail transport</t>
+  </si>
+  <si>
+    <t>Diesel oil</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>See calculations and sources</t>
+  </si>
+  <si>
+    <t>NL split, no electricity demand in the energy balance of DK</t>
+  </si>
+  <si>
+    <t>NL split, low lng demand in the energy balance of DK</t>
+  </si>
+  <si>
+    <t>NL split, low cng demand in the energy balance of DK</t>
+  </si>
+  <si>
+    <t>From DKstat, see calculations ans sources</t>
+  </si>
+  <si>
+    <t>Demand is 0, NL split</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -83,16 +411,85 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -100,8 +497,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="482">
+  <cellStyleXfs count="484">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -584,11 +1040,48 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="482" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="482" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="482" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="3" borderId="3" xfId="483" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="482" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="482" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="482" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="482" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="482" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="482" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="482" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="482">
+  <cellStyles count="484">
     <cellStyle name="Comma 2" xfId="468" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -1071,6 +1564,8 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="467" xr:uid="{00000000-0005-0000-0000-0000E0010000}"/>
     <cellStyle name="Normal 3" xfId="469" xr:uid="{00000000-0005-0000-0000-0000E1010000}"/>
+    <cellStyle name="Output" xfId="483" builtinId="21"/>
+    <cellStyle name="Percent" xfId="482" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1089,16 +1584,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>640827</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>23302</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>4080</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>176866</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1121,8 +1616,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="406400"/>
-          <a:ext cx="6794500" cy="3886200"/>
+          <a:off x="10393029" y="617522"/>
+          <a:ext cx="6808482" cy="3788794"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1133,16 +1628,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>787982</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>119660</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>339912</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>211746</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>119660</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1165,8 +1660,230 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="88900" y="5524500"/>
-          <a:ext cx="6855012" cy="6299200"/>
+          <a:off x="17985413" y="6854155"/>
+          <a:ext cx="6868994" cy="6140275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>46606</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57092</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>84706</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>166265</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="16" name="Group 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F81104F-7B4E-BE47-880E-28AE70C5D29F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="19038349" y="651312"/>
+          <a:ext cx="7483329" cy="4932843"/>
+          <a:chOff x="10754220" y="325073"/>
+          <a:chExt cx="7483330" cy="4862935"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="Picture 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0DF585E-A878-0342-9CC9-7B04CDE2C5FF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10754220" y="325073"/>
+            <a:ext cx="7483330" cy="4862935"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B819B727-8F15-2B49-8F1E-DD1AD47A1970}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13997963" y="1673487"/>
+            <a:ext cx="1451296" cy="2874628"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8D08DB7-E29F-1E48-954D-04E90D5670A3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14228311" y="1551614"/>
+            <a:ext cx="662148" cy="1291322"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E30934F-5D5C-FC4E-91A3-E77F4EDF6843}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14863311" y="2823828"/>
+            <a:ext cx="801848" cy="1609987"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>25592</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>175703</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72893071-DE7C-BA4B-B930-4D5AFF3263F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27147706" y="0"/>
+          <a:ext cx="8298069" cy="7772400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1499,34 +2216,1526 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B79D8AE-AD41-A941-8D2D-C6FB42245D86}">
-  <dimension ref="A1:A61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41541EAD-7236-B94E-9A9D-6A8C324B24B5}">
+  <dimension ref="B4:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="54.33203125" customWidth="1"/>
+    <col min="4" max="5" width="27.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="4" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="10"/>
+      <c r="G4" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="12"/>
+      <c r="C5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="13">
+        <f>'Calculations and sources'!D6</f>
+        <v>0.96969696969696972</v>
+      </c>
+      <c r="G5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="12"/>
+      <c r="C6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="14">
+        <f>'Calculations and sources'!D12</f>
+        <v>1.296714688454363E-2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="12"/>
+      <c r="C7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="14">
+        <f>'Calculations and sources'!D13</f>
+        <v>6.4835734422718149E-4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="12"/>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="14">
+        <f>'Calculations and sources'!D10</f>
+        <v>1.6687526074259492E-2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="12"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="12"/>
+      <c r="C10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="13">
+        <f>'Calculations and sources'!D17</f>
+        <v>0.38805970149253738</v>
+      </c>
+      <c r="G10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="12"/>
+      <c r="C11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="14">
+        <f>'Calculations and sources'!D20</f>
+        <v>0.56681547240676633</v>
+      </c>
+      <c r="G11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="14">
+        <f>'Calculations and sources'!D21</f>
+        <v>4.5124826100696326E-2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="12"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="12"/>
+      <c r="C14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.93297138085711395</v>
+      </c>
+      <c r="G14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="12"/>
+      <c r="C15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="13">
+        <v>1.9323151605444198E-2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="12"/>
+      <c r="C16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="14">
+        <v>2.4275954360230299E-2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="12"/>
+      <c r="C17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="14">
+        <v>1.78130659462489E-3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="12"/>
+      <c r="C18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="14">
+        <v>2.1648206582586101E-2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="12"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="12"/>
+      <c r="C20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="13">
+        <v>0.18798173297020199</v>
+      </c>
+      <c r="G20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="12"/>
+      <c r="C21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="13">
+        <v>0.81201826702979796</v>
+      </c>
+      <c r="G21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="12"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="12"/>
+      <c r="C23" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="14">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="12"/>
+      <c r="C24" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="14">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="12"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="12"/>
+      <c r="C26" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="13">
+        <v>0.214206400711135</v>
+      </c>
+      <c r="G26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="12"/>
+      <c r="C27" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="13">
+        <v>0.247191922156101</v>
+      </c>
+      <c r="G27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="12"/>
+      <c r="C28" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="14">
+        <v>0.53860167713276397</v>
+      </c>
+      <c r="G28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="12"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+    </row>
+    <row r="30" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="12"/>
+      <c r="C30" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="12"/>
+      <c r="C31" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="13">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="12"/>
+      <c r="C32" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="13">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="12"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="16"/>
+    </row>
+    <row r="34" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="12"/>
+      <c r="C34" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="17">
+        <v>3090</v>
+      </c>
+      <c r="G34" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="10"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B36" s="12"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+    </row>
+    <row r="37" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="12"/>
+      <c r="C37" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="12"/>
+      <c r="C38" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="14">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="12"/>
+      <c r="C39" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="14">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B40" s="12"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+    </row>
+    <row r="41" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="12"/>
+      <c r="C41" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="12"/>
+      <c r="C42" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="18">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="12"/>
+      <c r="C43" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="19">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B44" s="12"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B45" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+    </row>
+    <row r="46" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="12"/>
+      <c r="C46" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="8">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="12"/>
+      <c r="C47" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="22">
+        <f>'Calculations and sources'!F73</f>
+        <v>3.2382895670304057E-2</v>
+      </c>
+      <c r="G47" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="12"/>
+      <c r="C48" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="22">
+        <f>'Calculations and sources'!F74</f>
+        <v>0.73243439775225916</v>
+      </c>
+      <c r="G48" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="12"/>
+      <c r="C49" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="22">
+        <f>'Calculations and sources'!F71</f>
+        <v>0.23518270657743678</v>
+      </c>
+      <c r="G49" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B50" s="12"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+    </row>
+    <row r="51" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="12"/>
+      <c r="C51" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="8">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="12"/>
+      <c r="C52" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="22">
+        <f>'Calculations and sources'!C84</f>
+        <v>1.1455002062286748E-3</v>
+      </c>
+      <c r="G52" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="12"/>
+      <c r="C53" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="22">
+        <f>'Calculations and sources'!D84</f>
+        <v>0.99885449979377128</v>
+      </c>
+      <c r="G53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B54" s="12"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Number Range" error="This cell can only contain a number between 0% and 100%" sqref="E5 E9:E10 E13:E15 E19:E21 E25:E27 E29:E33 E38:E39 E42:E43" xr:uid="{F05447A7-C708-884E-B98B-B61A00B285A7}">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B79D8AE-AD41-A941-8D2D-C6FB42245D86}">
+  <dimension ref="A2:AK88"/>
+  <sheetViews>
+    <sheetView zoomScale="109" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="23">
+        <v>0.32</v>
+      </c>
+      <c r="C6" s="25">
+        <f>B6/SUM(B6:B7)</f>
+        <v>0.96969696969696972</v>
+      </c>
+      <c r="D6" s="25">
+        <f>C6</f>
+        <v>0.96969696969696972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="C7" s="25">
+        <f>B7/SUM(B6:B7)</f>
+        <v>3.0303030303030304E-2</v>
+      </c>
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="26"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="24">
+        <f>W31</f>
+        <v>0.44931163954943676</v>
+      </c>
+      <c r="C9" s="26">
+        <f>C7*B9</f>
+        <v>1.3615504228770812E-2</v>
+      </c>
+      <c r="D9" s="26"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="24">
+        <f>W32</f>
+        <v>0.55068836045056324</v>
+      </c>
+      <c r="C10" s="26">
+        <f>B10*C7</f>
+        <v>1.6687526074259492E-2</v>
+      </c>
+      <c r="D10" s="26">
+        <f>C10</f>
+        <v>1.6687526074259492E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="26"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="24">
+        <f>AK42</f>
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="C12" s="25">
+        <f>B12*C9</f>
+        <v>1.296714688454363E-2</v>
+      </c>
+      <c r="D12" s="25">
+        <f>C12</f>
+        <v>1.296714688454363E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="23">
+        <f>AK43</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="C13" s="25">
+        <f>B13*C9</f>
+        <v>6.4835734422718149E-4</v>
+      </c>
+      <c r="D13" s="25">
+        <f>C13</f>
+        <v>6.4835734422718149E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D14" s="26">
+        <f>SUM(D6:D13)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="23">
+        <v>0.26</v>
+      </c>
+      <c r="C17" s="23">
+        <f>B17/SUM(B17:B18)</f>
+        <v>0.38805970149253738</v>
+      </c>
+      <c r="D17" s="24">
+        <f>C17</f>
+        <v>0.38805970149253738</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="23">
+        <v>0.41</v>
+      </c>
+      <c r="C18" s="23">
+        <f>B18/SUM(B17:B18)</f>
+        <v>0.61194029850746268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="24">
+        <f>V67</f>
+        <v>0.92625943051837434</v>
+      </c>
+      <c r="C20" s="24">
+        <f>B20*C18</f>
+        <v>0.56681547240676633</v>
+      </c>
+      <c r="D20" s="24">
+        <f>C20</f>
+        <v>0.56681547240676633</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="24">
+        <f>V68</f>
+        <v>7.3740569481625703E-2</v>
+      </c>
+      <c r="C21" s="24">
+        <f>B21*C18</f>
+        <v>4.5124826100696326E-2</v>
+      </c>
+      <c r="D21" s="24">
+        <f>C21</f>
+        <v>4.5124826100696326E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="D22" s="24">
+        <f>SUM(D17:D21)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T30" t="s">
+        <v>60</v>
+      </c>
+      <c r="V30">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T31" t="s">
+        <v>52</v>
+      </c>
+      <c r="V31">
+        <v>3.59</v>
+      </c>
+      <c r="W31" s="23">
+        <f>V31/V30</f>
+        <v>0.44931163954943676</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T32" t="s">
+        <v>53</v>
+      </c>
+      <c r="V32">
+        <f>V30-V31</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="W32" s="23">
+        <f>V32/V30</f>
+        <v>0.55068836045056324</v>
+      </c>
+    </row>
+    <row r="42" spans="32:37" x14ac:dyDescent="0.2">
+      <c r="AF42" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ42">
+        <v>20000</v>
+      </c>
+      <c r="AK42">
+        <f>AJ42/SUM(AJ42:AJ43)</f>
+        <v>0.95238095238095233</v>
+      </c>
+    </row>
+    <row r="43" spans="32:37" x14ac:dyDescent="0.2">
+      <c r="AF43" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ43">
+        <v>1000</v>
+      </c>
+      <c r="AK43">
+        <f>AJ43/SUM(AJ42:AJ43)</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A65" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="C67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="T67" t="s">
+        <v>70</v>
+      </c>
+      <c r="U67">
+        <f>6646+966</f>
+        <v>7612</v>
+      </c>
+      <c r="V67" s="23">
+        <f>U67/SUM(U67:U68)</f>
+        <v>0.92625943051837434</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C68" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G68" s="2"/>
+      <c r="T68" t="s">
+        <v>71</v>
+      </c>
+      <c r="U68">
+        <f>606</f>
+        <v>606</v>
+      </c>
+      <c r="V68" s="23">
+        <f>U68/SUM(U67:U68)</f>
+        <v>7.3740569481625703E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="F69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C70" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" s="5">
+        <v>1365696</v>
+      </c>
+      <c r="F70" s="5">
+        <v>419954</v>
+      </c>
+      <c r="G70" s="2">
+        <f>SUM(E70:F70)</f>
+        <v>1785650</v>
+      </c>
+      <c r="T70" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="7">
+        <f>E70/G70</f>
+        <v>0.76481729342256322</v>
+      </c>
+      <c r="F71" s="7">
+        <f>F70/G70</f>
+        <v>0.23518270657743678</v>
+      </c>
+      <c r="G71" s="28">
+        <f>SUM(E71:F71)</f>
+        <v>1</v>
+      </c>
+      <c r="T71" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U71" s="2"/>
+      <c r="V71" s="2"/>
+      <c r="W71" s="2"/>
+      <c r="X71" s="2"/>
+      <c r="Y71" s="2"/>
+      <c r="Z71" s="2"/>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D72" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="T72" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="U72" s="2"/>
+      <c r="V72" s="2"/>
+      <c r="W72" s="2"/>
+      <c r="X72" s="2"/>
+      <c r="Y72" s="2"/>
+      <c r="Z72" s="2"/>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D73" s="2">
+        <f xml:space="preserve"> Z84 + 0</f>
+        <v>75.25</v>
+      </c>
+      <c r="E73" s="7">
+        <f>D73/SUM(D73:D74)</f>
+        <v>4.2340694893796597E-2</v>
+      </c>
+      <c r="F73" s="23">
+        <f>E73*E71</f>
+        <v>3.2382895670304057E-2</v>
+      </c>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2"/>
+      <c r="V73" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="W73" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="X73" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y73" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z73" s="2"/>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D74" s="2">
+        <f>Z74</f>
+        <v>1702</v>
+      </c>
+      <c r="E74" s="7">
+        <f>(D74)/SUM(D73:D74)</f>
+        <v>0.95765930510620345</v>
+      </c>
+      <c r="F74" s="23">
+        <f>E74*E71</f>
+        <v>0.73243439775225916</v>
+      </c>
+      <c r="T74" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="U74" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="V74" s="5">
+        <v>1655</v>
+      </c>
+      <c r="W74" s="5">
+        <v>1691</v>
+      </c>
+      <c r="X74" s="5">
+        <v>1677</v>
+      </c>
+      <c r="Y74" s="5">
+        <v>1785</v>
+      </c>
+      <c r="Z74" s="2">
+        <f>AVERAGE(V74:Y74)</f>
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="24">
+        <f>SUM(F71:F74)</f>
+        <v>1</v>
+      </c>
+      <c r="T75" s="2"/>
+      <c r="U75" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="V75" s="5">
+        <v>1528</v>
+      </c>
+      <c r="W75" s="5">
+        <v>1559</v>
+      </c>
+      <c r="X75" s="5">
+        <v>1546</v>
+      </c>
+      <c r="Y75" s="5">
+        <v>1649</v>
+      </c>
+      <c r="Z75" s="2">
+        <f t="shared" ref="Z75:Z86" si="0">AVERAGE(V75:Y75)</f>
+        <v>1570.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="T76" s="2"/>
+      <c r="U76" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="V76" s="5">
+        <v>326</v>
+      </c>
+      <c r="W76" s="5">
+        <v>337</v>
+      </c>
+      <c r="X76" s="5">
+        <v>324</v>
+      </c>
+      <c r="Y76" s="5">
+        <v>357</v>
+      </c>
+      <c r="Z76" s="2">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="T77" s="2"/>
+      <c r="U77" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="V77" s="5">
+        <v>1122</v>
+      </c>
+      <c r="W77" s="5">
+        <v>1124</v>
+      </c>
+      <c r="X77" s="5">
+        <v>1100</v>
+      </c>
+      <c r="Y77" s="5">
+        <v>1184</v>
+      </c>
+      <c r="Z77" s="2">
+        <f t="shared" si="0"/>
+        <v>1132.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>102</v>
+      </c>
+      <c r="T78" s="2"/>
+      <c r="U78" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="V78" s="5">
+        <v>363</v>
+      </c>
+      <c r="W78" s="5">
+        <v>382</v>
+      </c>
+      <c r="X78" s="5">
+        <v>383</v>
+      </c>
+      <c r="Y78" s="5">
+        <v>397</v>
+      </c>
+      <c r="Z78" s="2">
+        <f t="shared" si="0"/>
+        <v>381.25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="T79" s="2"/>
+      <c r="U79" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="V79" s="5">
+        <v>297</v>
+      </c>
+      <c r="W79" s="5">
+        <v>291</v>
+      </c>
+      <c r="X79" s="5">
+        <v>284</v>
+      </c>
+      <c r="Y79" s="5">
+        <v>312</v>
+      </c>
+      <c r="Z79" s="2">
+        <f t="shared" si="0"/>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="T80" s="2"/>
+      <c r="U80" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="V80" s="5">
+        <v>462</v>
+      </c>
+      <c r="W80" s="5">
+        <v>450</v>
+      </c>
+      <c r="X80" s="5">
+        <v>434</v>
+      </c>
+      <c r="Y80" s="5">
+        <v>475</v>
+      </c>
+      <c r="Z80" s="2">
+        <f t="shared" si="0"/>
+        <v>455.25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="T81" s="2"/>
+      <c r="U81" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="V81" s="5">
+        <v>80</v>
+      </c>
+      <c r="W81" s="5">
+        <v>99</v>
+      </c>
+      <c r="X81" s="5">
+        <v>122</v>
+      </c>
+      <c r="Y81" s="5">
+        <v>108</v>
+      </c>
+      <c r="Z81" s="2">
+        <f t="shared" si="0"/>
+        <v>102.25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="T82" s="2"/>
+      <c r="U82" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V82" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>1</v>
-      </c>
+      <c r="W82" s="5">
+        <v>0</v>
+      </c>
+      <c r="X82" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y82" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z82" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="5">
+        <v>21346</v>
+      </c>
+      <c r="D83" s="5">
+        <v>18613308</v>
+      </c>
+      <c r="E83" s="2">
+        <f>SUM(C83:D83)</f>
+        <v>18634654</v>
+      </c>
+      <c r="F83" s="2"/>
+      <c r="T83" s="2"/>
+      <c r="U83" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="V83" s="5">
+        <v>0</v>
+      </c>
+      <c r="W83" s="5">
+        <v>0</v>
+      </c>
+      <c r="X83" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="29">
+        <f>C83/E83</f>
+        <v>1.1455002062286748E-3</v>
+      </c>
+      <c r="D84" s="29">
+        <f>D83/E83</f>
+        <v>0.99885449979377128</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="T84" s="2"/>
+      <c r="U84" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="V84" s="5">
+        <v>75</v>
+      </c>
+      <c r="W84" s="5">
+        <v>75</v>
+      </c>
+      <c r="X84" s="5">
+        <v>70</v>
+      </c>
+      <c r="Y84" s="5">
+        <v>81</v>
+      </c>
+      <c r="Z84" s="2">
+        <f t="shared" si="0"/>
+        <v>75.25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="T85" s="2"/>
+      <c r="U85" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="V85" s="5">
+        <v>52</v>
+      </c>
+      <c r="W85" s="5">
+        <v>57</v>
+      </c>
+      <c r="X85" s="5">
+        <v>61</v>
+      </c>
+      <c r="Y85" s="5">
+        <v>55</v>
+      </c>
+      <c r="Z85" s="2">
+        <f t="shared" si="0"/>
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="T86" s="2"/>
+      <c r="U86" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="V86" s="5">
+        <v>0</v>
+      </c>
+      <c r="W86" s="5">
+        <v>0</v>
+      </c>
+      <c r="X86" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="T87" s="2"/>
+      <c r="U87" s="2"/>
+      <c r="V87" s="2"/>
+      <c r="W87" s="2"/>
+      <c r="X87" s="2"/>
+      <c r="Y87" s="2"/>
+      <c r="Z87" s="2"/>
+    </row>
+    <row r="88" spans="1:26" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="T88" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="U88" s="2"/>
+      <c r="V88" s="2"/>
+      <c r="W88" s="2"/>
+      <c r="X88" s="2"/>
+      <c r="Y88" s="2"/>
+      <c r="Z88" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/source_analyses/dk/2015/8_transport/8_transport_source_analysis.xlsx
+++ b/source_analyses/dk/2015/8_transport/8_transport_source_analysis.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10215"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martlubben/Projects/etdataset/source_analyses/dk/2015/8_transport/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathijsbijkerk/Projects/etdataset/source_analyses/dk/2015/8_transport/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA84D0E3-E7FF-4C43-9704-79C2FEC8286A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1681C29-F40D-9941-A512-B7CCF4AAD54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48000" yWindow="-3160" windowWidth="19200" windowHeight="21160" tabRatio="702" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="13580" tabRatio="702" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="23" r:id="rId1"/>
     <sheet name="Calculations and sources" sheetId="22" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -24,6 +24,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="120">
   <si>
     <t>AARHUS UNIVERSITY - DANISH EMISSION INVENTORIES FOR ROAD TRANSPORT AND OTHER MOBILE SOURCESM 2016</t>
   </si>
@@ -243,9 +248,6 @@
     <t>Diesel split</t>
   </si>
   <si>
-    <t>HDV + LDV</t>
-  </si>
-  <si>
     <t>Diesel trucks</t>
   </si>
   <si>
@@ -367,6 +369,36 @@
   </si>
   <si>
     <t>Demand is 0, NL split</t>
+  </si>
+  <si>
+    <t>Percentage of gasoline mix delivered to vans</t>
+  </si>
+  <si>
+    <t>Assumed to be 0</t>
+  </si>
+  <si>
+    <t>LDV</t>
+  </si>
+  <si>
+    <t>HDV</t>
+  </si>
+  <si>
+    <t>Percentage of diesel mix delivered to vans</t>
+  </si>
+  <si>
+    <t>Percentage of electricity delivered to vans</t>
+  </si>
+  <si>
+    <t>Percentage of compressed network gas delivered to vans</t>
+  </si>
+  <si>
+    <t>Percentage of lpg that is delivered to cars</t>
+  </si>
+  <si>
+    <t>Percentage of lpg that is delivered to vans</t>
+  </si>
+  <si>
+    <t>NL split, low lpg demand in the energy balance of DK</t>
   </si>
 </sst>
 </file>
@@ -375,7 +407,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -489,7 +521,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -556,6 +588,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="484">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1043,7 +1088,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
@@ -1079,7 +1124,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="482" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="482" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="12" fillId="3" borderId="0" xfId="483" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="3" borderId="6" xfId="483" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="484">
     <cellStyle name="Comma 2" xfId="468" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1565,7 +1612,7 @@
     <cellStyle name="Normal 2" xfId="467" xr:uid="{00000000-0005-0000-0000-0000E0010000}"/>
     <cellStyle name="Normal 3" xfId="469" xr:uid="{00000000-0005-0000-0000-0000E1010000}"/>
     <cellStyle name="Output" xfId="483" builtinId="21"/>
-    <cellStyle name="Percent" xfId="482" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="482" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2217,10 +2264,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41541EAD-7236-B94E-9A9D-6A8C324B24B5}">
-  <dimension ref="B4:G54"/>
+  <dimension ref="B4:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2229,7 +2276,7 @@
     <col min="4" max="5" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
@@ -2237,10 +2284,10 @@
       <c r="D4" s="11"/>
       <c r="E4" s="10"/>
       <c r="G4" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="12"/>
       <c r="C5" s="10" t="s">
         <v>11</v>
@@ -2253,10 +2300,10 @@
         <v>0.96969696969696972</v>
       </c>
       <c r="G5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="12"/>
       <c r="C6" s="10" t="s">
         <v>13</v>
@@ -2265,346 +2312,352 @@
         <v>12</v>
       </c>
       <c r="E6" s="14">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="12"/>
+      <c r="C7" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="14">
         <f>'Calculations and sources'!D12</f>
         <v>1.296714688454363E-2</v>
       </c>
-      <c r="G6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="12"/>
-      <c r="C7" s="10" t="s">
+      <c r="G7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="12"/>
+      <c r="C8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E8" s="14">
         <f>'Calculations and sources'!D13</f>
         <v>6.4835734422718149E-4</v>
       </c>
-      <c r="G7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="12"/>
-      <c r="C8" s="10" t="s">
+      <c r="G8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="12"/>
+      <c r="C9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E9" s="14">
         <f>'Calculations and sources'!D10</f>
         <v>1.6687526074259492E-2</v>
       </c>
-      <c r="G8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="12"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="12"/>
+      <c r="C11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E11" s="13">
         <f>'Calculations and sources'!D17</f>
         <v>0.38805970149253738</v>
       </c>
-      <c r="G10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="12"/>
-      <c r="C11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="14">
-        <f>'Calculations and sources'!D20</f>
-        <v>0.56681547240676633</v>
-      </c>
       <c r="G11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
       <c r="C12" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="14">
         <f>'Calculations and sources'!D21</f>
-        <v>4.5124826100696326E-2</v>
+        <v>0.41474302859031686</v>
       </c>
       <c r="G12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="J12" s="24"/>
+    </row>
+    <row r="13" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="14">
+        <f>'Calculations and sources'!D18</f>
+        <v>0.16417910447761197</v>
+      </c>
+      <c r="G13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="C14" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="13">
-        <v>0.93297138085711395</v>
+      <c r="E14" s="14">
+        <f>'Calculations and sources'!D22</f>
+        <v>3.3018165439533897E-2</v>
       </c>
       <c r="G14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
-      <c r="C15" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="13">
-        <v>1.9323151605444198E-2</v>
-      </c>
-      <c r="G15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="C16" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="14">
-        <v>2.4275954360230299E-2</v>
+      <c r="E16" s="13">
+        <v>0.93297138085711395</v>
       </c>
       <c r="G16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="C17" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="14">
-        <v>1.78130659462489E-3</v>
+      <c r="E17" s="13">
+        <v>7.1762413614498378E-3</v>
       </c>
       <c r="G17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="C18" s="10" t="s">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="14">
-        <v>2.1648206582586101E-2</v>
+      <c r="E18" s="13">
+        <v>1.2146910243994408E-2</v>
       </c>
       <c r="G18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="14">
+        <v>2.4275954360230299E-2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
       <c r="C20" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="13">
-        <v>0.18798173297020199</v>
+      <c r="E20" s="14">
+        <v>1.78130659462489E-3</v>
       </c>
       <c r="G20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
       <c r="C21" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="13">
-        <v>0.81201826702979796</v>
+      <c r="E21" s="14">
+        <v>2.1648206582586101E-2</v>
       </c>
       <c r="G21" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="12"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="12"/>
       <c r="C23" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="14">
-        <v>1</v>
+      <c r="E23" s="13">
+        <v>0.18798173297020199</v>
       </c>
       <c r="G23" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="12"/>
       <c r="C24" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="14">
-        <v>0</v>
+      <c r="E24" s="13">
+        <v>0.81201826702979796</v>
       </c>
       <c r="G24" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="12"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
     </row>
-    <row r="26" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="12"/>
       <c r="C26" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="13">
-        <v>0.214206400711135</v>
+      <c r="E26" s="14">
+        <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="12"/>
       <c r="C27" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="13">
-        <v>0.247191922156101</v>
+      <c r="E27" s="14">
+        <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="12"/>
-      <c r="C28" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="10" t="s">
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="30"/>
+    </row>
+    <row r="29" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="12"/>
+      <c r="C29" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="14">
-        <v>0.53860167713276397</v>
-      </c>
-      <c r="G28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="12"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-    </row>
-    <row r="30" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="14">
+        <v>0.82495061280201665</v>
+      </c>
+      <c r="G29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="12"/>
       <c r="C30" s="10" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="E30" s="31">
+        <v>0.1750493871979833</v>
+      </c>
+      <c r="G30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="12"/>
-      <c r="C31" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="13">
-        <v>0</v>
-      </c>
-      <c r="G31" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="K31" s="24"/>
+    </row>
+    <row r="32" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="12"/>
       <c r="C32" s="10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E32" s="13">
-        <v>1</v>
+        <v>0.214206400711135</v>
       </c>
       <c r="G32" t="s">
         <v>107</v>
@@ -2612,32 +2665,48 @@
     </row>
     <row r="33" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="12"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="16"/>
+      <c r="C33" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="13">
+        <v>0.1079296200078369</v>
+      </c>
+      <c r="G33" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="34" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="12"/>
       <c r="C34" s="10" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" s="17">
-        <v>3090</v>
+        <v>12</v>
+      </c>
+      <c r="E34" s="13">
+        <v>0.13926230214826443</v>
       </c>
       <c r="G34" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="10"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="12"/>
+      <c r="C35" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="14">
+        <v>0.53860167713276397</v>
+      </c>
+      <c r="G35" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36" s="12"/>
@@ -2648,226 +2717,303 @@
     <row r="37" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="12"/>
       <c r="C37" s="10" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E37" s="8">
-        <v>0</v>
+      <c r="E37" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="12"/>
       <c r="C38" s="10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="13">
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="12"/>
       <c r="C39" s="10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="13">
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="12"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
+      <c r="E40" s="16"/>
     </row>
     <row r="41" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="12"/>
       <c r="C41" s="10" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D41" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="17">
+        <v>3090</v>
+      </c>
+      <c r="G41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B42" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="10"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B43" s="12"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+    </row>
+    <row r="44" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="12"/>
+      <c r="C44" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E44" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="12"/>
-      <c r="C42" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="10" t="s">
+    <row r="45" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="12"/>
+      <c r="C45" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E45" s="14">
         <v>0</v>
       </c>
-      <c r="G42" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="12"/>
-      <c r="C43" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="19">
-        <v>1</v>
-      </c>
-      <c r="G43" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B44" s="12"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B45" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
+      <c r="G45" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="46" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="12"/>
       <c r="C46" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="8">
-        <v>1429</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="E46" s="14">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B47" s="12"/>
-      <c r="C47" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="22">
-        <f>'Calculations and sources'!F73</f>
-        <v>3.2382895670304057E-2</v>
-      </c>
-      <c r="G47" t="s">
-        <v>105</v>
-      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
     </row>
     <row r="48" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="12"/>
       <c r="C48" s="10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" s="22">
-        <f>'Calculations and sources'!F74</f>
-        <v>0.73243439775225916</v>
-      </c>
-      <c r="G48" t="s">
-        <v>105</v>
+        <v>32</v>
+      </c>
+      <c r="E48" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="12"/>
       <c r="C49" s="10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E49" s="22">
-        <f>'Calculations and sources'!F71</f>
-        <v>0.23518270657743678</v>
+      <c r="E49" s="18">
+        <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B50" s="12"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-    </row>
-    <row r="51" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="19">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B51" s="12"/>
-      <c r="C51" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E51" s="8">
-        <v>3365</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="12"/>
-      <c r="C52" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="22">
-        <f>'Calculations and sources'!C84</f>
-        <v>1.1455002062286748E-3</v>
-      </c>
-      <c r="G52" t="s">
-        <v>105</v>
-      </c>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B52" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
     </row>
     <row r="53" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B53" s="12"/>
       <c r="C53" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" s="8">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="12"/>
+      <c r="C54" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="22">
+        <f>'Calculations and sources'!F73</f>
+        <v>3.2382895670304057E-2</v>
+      </c>
+      <c r="G54" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="12"/>
+      <c r="C55" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="22">
+        <f>'Calculations and sources'!F74</f>
+        <v>0.73243439775225916</v>
+      </c>
+      <c r="G55" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="12"/>
+      <c r="C56" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="22">
+        <f>'Calculations and sources'!F71</f>
+        <v>0.23518270657743678</v>
+      </c>
+      <c r="G56" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B57" s="12"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+    </row>
+    <row r="58" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="12"/>
+      <c r="C58" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="8">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="12"/>
+      <c r="C59" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="22">
+        <f>'Calculations and sources'!C84</f>
+        <v>1.1455002062286748E-3</v>
+      </c>
+      <c r="G59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="12"/>
+      <c r="C60" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D60" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="22">
+      <c r="E60" s="22">
         <f>'Calculations and sources'!D84</f>
         <v>0.99885449979377128</v>
       </c>
-      <c r="G53" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B54" s="12"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
+      <c r="G60" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B61" s="12"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Number Range" error="This cell can only contain a number between 0% and 100%" sqref="E5 E9:E10 E13:E15 E19:E21 E25:E27 E29:E33 E38:E39 E42:E43" xr:uid="{F05447A7-C708-884E-B98B-B61A00B285A7}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Number Range" error="This cell can only contain a number between 0% and 100%" sqref="E5 E10:E11 E15:E18 E22:E24 E31:E34 E36:E40 E45:E46 E49:E50" xr:uid="{F05447A7-C708-884E-B98B-B61A00B285A7}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
@@ -2880,8 +3026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B79D8AE-AD41-A941-8D2D-C6FB42245D86}">
   <dimension ref="A2:AK88"/>
   <sheetViews>
-    <sheetView zoomScale="109" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="A3" zoomScale="109" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3030,7 +3176,7 @@
         <v>0.26</v>
       </c>
       <c r="C17" s="23">
-        <f>B17/SUM(B17:B18)</f>
+        <f>B17/SUM(B17:B19)</f>
         <v>0.38805970149253738</v>
       </c>
       <c r="D17" s="24">
@@ -3040,67 +3186,83 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="B18" s="23">
-        <v>0.41</v>
-      </c>
-      <c r="C18" s="23">
-        <f>B18/SUM(B17:B18)</f>
-        <v>0.61194029850746268</v>
+        <v>0.11</v>
+      </c>
+      <c r="C18" s="24">
+        <f>B18/SUM(B17:B19)</f>
+        <v>0.16417910447761197</v>
+      </c>
+      <c r="D18" s="24">
+        <f>C18</f>
+        <v>0.16417910447761197</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>113</v>
+      </c>
+      <c r="B19" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="C19" s="23">
+        <f>B19/SUM(B17:B19)</f>
+        <v>0.44776119402985076</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B21" s="24">
         <f>V67</f>
         <v>0.92625943051837434</v>
       </c>
-      <c r="C20" s="24">
-        <f>B20*C18</f>
-        <v>0.56681547240676633</v>
-      </c>
-      <c r="D20" s="24">
-        <f>C20</f>
-        <v>0.56681547240676633</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="C21" s="24">
+        <f>B21*C19</f>
+        <v>0.41474302859031686</v>
+      </c>
+      <c r="D21" s="24">
+        <f>C21</f>
+        <v>0.41474302859031686</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B22" s="24">
         <f>V68</f>
         <v>7.3740569481625703E-2</v>
       </c>
-      <c r="C21" s="24">
-        <f>B21*C18</f>
-        <v>4.5124826100696326E-2</v>
-      </c>
-      <c r="D21" s="24">
-        <f>C21</f>
-        <v>4.5124826100696326E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C22" s="24">
+        <f>B22*C19</f>
+        <v>3.3018165439533897E-2</v>
+      </c>
       <c r="D22" s="24">
-        <f>SUM(D17:D21)</f>
+        <f>C22</f>
+        <v>3.3018165439533897E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="D23" s="24">
+        <f>SUM(D17:D22)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
         <v>72</v>
-      </c>
-      <c r="B23" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
@@ -3184,7 +3346,7 @@
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="T67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U67">
         <f>6646+966</f>
@@ -3202,11 +3364,11 @@
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G68" s="2"/>
       <c r="T68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U68">
         <f>606</f>
@@ -3248,7 +3410,7 @@
         <v>1785650</v>
       </c>
       <c r="T70" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:26" ht="17" x14ac:dyDescent="0.2">
@@ -3267,7 +3429,7 @@
         <v>1</v>
       </c>
       <c r="T71" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U71" s="2"/>
       <c r="V71" s="2"/>
@@ -3278,11 +3440,11 @@
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D72" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E72" s="2"/>
       <c r="T72" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U72" s="2"/>
       <c r="V72" s="2"/>
@@ -3293,11 +3455,11 @@
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D73" s="2">
         <f xml:space="preserve"> Z84 + 0</f>
@@ -3314,16 +3476,16 @@
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
       <c r="V73" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="W73" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="W73" s="4" t="s">
+      <c r="X73" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="X73" s="4" t="s">
+      <c r="Y73" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="Y73" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="Z73" s="2"/>
     </row>
@@ -3331,7 +3493,7 @@
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D74" s="2">
         <f>Z74</f>
@@ -3346,10 +3508,10 @@
         <v>0.73243439775225916</v>
       </c>
       <c r="T74" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="U74" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="U74" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="V74" s="5">
         <v>1655</v>
@@ -3380,7 +3542,7 @@
       </c>
       <c r="T75" s="2"/>
       <c r="U75" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V75" s="5">
         <v>1528</v>
@@ -3402,7 +3564,7 @@
     <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="T76" s="2"/>
       <c r="U76" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V76" s="5">
         <v>326</v>
@@ -3424,7 +3586,7 @@
     <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="T77" s="2"/>
       <c r="U77" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V77" s="5">
         <v>1122</v>
@@ -3445,11 +3607,11 @@
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T78" s="2"/>
       <c r="U78" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V78" s="5">
         <v>363</v>
@@ -3471,7 +3633,7 @@
     <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="T79" s="2"/>
       <c r="U79" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V79" s="5">
         <v>297</v>
@@ -3501,7 +3663,7 @@
       <c r="F80" s="2"/>
       <c r="T80" s="2"/>
       <c r="U80" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V80" s="5">
         <v>462</v>
@@ -3531,7 +3693,7 @@
       <c r="F81" s="2"/>
       <c r="T81" s="2"/>
       <c r="U81" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V81" s="5">
         <v>80</v>
@@ -3563,7 +3725,7 @@
       <c r="F82" s="2"/>
       <c r="T82" s="2"/>
       <c r="U82" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V82" s="5">
         <v>0</v>
@@ -3584,7 +3746,7 @@
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>6</v>
@@ -3602,7 +3764,7 @@
       <c r="F83" s="2"/>
       <c r="T83" s="2"/>
       <c r="U83" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V83" s="5">
         <v>0</v>
@@ -3636,7 +3798,7 @@
       <c r="F84" s="2"/>
       <c r="T84" s="2"/>
       <c r="U84" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V84" s="5">
         <v>75</v>
@@ -3664,7 +3826,7 @@
       <c r="F85" s="2"/>
       <c r="T85" s="2"/>
       <c r="U85" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V85" s="5">
         <v>52</v>
@@ -3692,7 +3854,7 @@
       <c r="F86" s="2"/>
       <c r="T86" s="2"/>
       <c r="U86" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V86" s="5">
         <v>0</v>
@@ -3728,7 +3890,7 @@
     </row>
     <row r="88" spans="1:26" ht="409.6" x14ac:dyDescent="0.2">
       <c r="T88" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U88" s="2"/>
       <c r="V88" s="2"/>
